--- a/admin/figures-tables/cwq/cwq_stations_review.xlsx
+++ b/admin/figures-tables/cwq/cwq_stations_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\emp-website\admin\figures-tables\cwq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AFBBE5-24D5-42A2-986E-B7DBFDF331AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0310AF21-5428-40CA-BF15-375C0ACB71CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0F3B2977-D67B-46FD-B123-5DAAD3F656EF}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{0F3B2977-D67B-46FD-B123-5DAAD3F656EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="108">
   <si>
     <t>Suisun Marsh</t>
   </si>
@@ -372,6 +372,9 @@
       </rPr>
       <t>why same coordinates as C3A? Why dif region?</t>
     </r>
+  </si>
+  <si>
+    <t>S71</t>
   </si>
 </sst>
 </file>
@@ -814,20 +817,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03177697-B954-4A7A-B0D8-6138916A88A9}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -844,7 +847,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -859,7 +862,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
@@ -877,7 +880,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -892,7 +895,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -910,7 +913,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -926,7 +929,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -944,7 +947,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -958,7 +961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -974,7 +977,7 @@
       <c r="E9"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -988,7 +991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>97</v>
       </c>
@@ -1006,7 +1009,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>97</v>
       </c>
@@ -1052,7 +1055,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1067,7 +1070,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1103,7 @@
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -1118,7 +1121,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1162,7 +1165,7 @@
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1181,7 @@
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>94</v>
       </c>
@@ -1196,7 +1199,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1228,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1241,7 +1244,7 @@
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1271,7 +1274,7 @@
       <c r="E28"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>44</v>
       </c>
@@ -1303,7 +1306,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1321,7 +1324,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>96</v>
       </c>
@@ -1339,7 +1342,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +1417,7 @@
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1432,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1447,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1462,7 +1465,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>98</v>
       </c>
@@ -1480,7 +1483,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
@@ -1497,6 +1500,20 @@
         <v>45</v>
       </c>
       <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
